--- a/trend_results/Rivers/WhangaehuatdsWinstonePulp_6027691f48.xlsx
+++ b/trend_results/Rivers/WhangaehuatdsWinstonePulp_6027691f48.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.643788875060667</v>
+        <v>0.356211124939333</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.441232841643137</v>
+        <v>0.558767158356863</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0014127189564776</v>
+        <v>0.998587281043522</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5939944521821841</v>
+        <v>0.406005547817816</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.309261031054942</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.06993006993006989</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.440559440559441</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0013242851470981</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0091656178177109</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0030709222731664</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.485086134468181</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.274355515048508</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.781609195402299</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.0100048276460961</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0359635841636534</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0200617774332763</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.102508479980493</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2.50006166321976e-09</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0898876404494382</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.578651685393258</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0046726588294534</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0028096153846153</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0070422404260403</v>
+      </c>
+      <c r="N30" t="n">
+        <v>11.9811764857781</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.999999996062707</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.418079096045198</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.361581920903955</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.373722574584242</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.880764873364569</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-12.4574191528081</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0010507066911546</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.183431952662722</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.562130177514793</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0314685314685315</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0015171915491069</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0005162223473096</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0024317310420281</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.82129758938444</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.953004984153158</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.698717948717949</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.108974358974359</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2.45926047980249e-08</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0506329113924051</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.455696202531646</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0013322188449848</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0009572348280313001</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0016802133877924</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.1719496309162</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>6.25366223140356e-05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.805714285714286</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.078726227377985</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.111177439037204</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.0500013520034963</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-2.2952252879879</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0012238341468705</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0056179775280898</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7247191011235951</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0057997278391129</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.002762083733473</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.008835349155636701</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.26450576405362</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.892948997722539</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0451977401129944</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.5310734463276841</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0049184376281344</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0126456395697708</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0015480326990902</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.40526789375271</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0020122001589353</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.717514124293785</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.003989857576174</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0017844600881527</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0065639948515306</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.38123523404581</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.999573987050589</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.870056497175141</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.976441659070191</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-1.57339753113023</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.542845152605631</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-4.67196966062293</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/WhangaehuatdsWinstonePulp_6027691f48.xlsx
+++ b/trend_results/Rivers/WhangaehuatdsWinstonePulp_6027691f48.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.068813089185328</v>
+        <v>0.0001897269859519</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.785714285714286</v>
+        <v>0.773584905660377</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2715</v>
+        <v>0.27</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0285652918510061</v>
+        <v>-0.0571806525241676</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0624299686918455</v>
+        <v>-0.0798922766439823</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0022178869733355</v>
+        <v>-0.0305108887290731</v>
       </c>
       <c r="N2" t="n">
-        <v>-10.5212861329673</v>
+        <v>-21.1780194533954</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.356211124939333</v>
+        <v>0.746491225748484</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.931034482758621</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.859999999999999</v>
+        <v>10.105</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0260561534573913</v>
+        <v>0.034454483623173</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0874364957600539</v>
+        <v>-0.0257506132516161</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07943482766111221</v>
+        <v>0.09285502583944601</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.264261191251433</v>
+        <v>0.340964706810222</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.164827875911347</v>
+        <v>0.546868877494938</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.779661016949153</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.097</v>
+        <v>0.058</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006805900621118</v>
+        <v>-0.0003162337662337</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0020068681318681</v>
+        <v>-0.0088413169720767</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0213443296067465</v>
+        <v>0.008322434688066999</v>
       </c>
       <c r="N4" t="n">
-        <v>7.01639239290517</v>
+        <v>-0.545230631437525</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.815453808048816</v>
+        <v>0.994387305198094</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6610169491525421</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="H5" t="n">
-        <v>0.23728813559322</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.0462969229702833</v>
+        <v>0.523800440202992</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.862745098039216</v>
+        <v>0.907407407407407</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0486013986013986</v>
+        <v>0.0379370629370629</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0064899893388265</v>
+        <v>-0.0002865589907474</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-0.006907137494285</v>
       </c>
       <c r="M6" t="n">
-        <v>0.016527208102834</v>
+        <v>0.0053601840087412</v>
       </c>
       <c r="N6" t="n">
-        <v>13.3535032439165</v>
+        <v>-0.755353653030208</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.46284101398922</v>
+        <v>0.241202354178931</v>
       </c>
       <c r="G7" t="n">
-        <v>0.915254237288136</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="H7" t="n">
-        <v>0.11864406779661</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.136980244242747</v>
+        <v>0.97174707938272</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0338983050847458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.423728813559322</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0.047</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0008267286958324</v>
+        <v>-0.0013209764918625</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0004485609314086</v>
+        <v>-0.002484693877551</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0020068681318681</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.75899722517547</v>
+        <v>-2.81058828055866</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.558767158356863</v>
+        <v>0.441232841643137</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.896551724137931</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.715</v>
+        <v>2.805</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0266517200951915</v>
+        <v>-0.0292242182578568</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.110859777737966</v>
+        <v>-0.246555250897439</v>
       </c>
       <c r="M9" t="n">
-        <v>0.141792991325127</v>
+        <v>0.125563464263428</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9816471489941609</v>
+        <v>-1.04186161347083</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0582163295707956</v>
+        <v>0.32824387025514</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.830508474576271</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.18</v>
+        <v>0.152</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0157908834586466</v>
+        <v>0.0039830970556161</v>
       </c>
       <c r="L10" t="n">
-        <v>-5.56905316722442e-05</v>
+        <v>-0.0119960104638905</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0432472108645387</v>
+        <v>0.0161780280165902</v>
       </c>
       <c r="N10" t="n">
-        <v>8.77271303258145</v>
+        <v>2.62045858922114</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0018395340505213</v>
+        <v>0.999390172387873</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H11" t="n">
-        <v>0.847457627118644</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>46</v>
+        <v>0.36</v>
       </c>
       <c r="K11" t="n">
-        <v>10.984962406015</v>
+        <v>-0.0506210021321962</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33928848987236</v>
+        <v>-0.07458505452429701</v>
       </c>
       <c r="M11" t="n">
-        <v>18.7675624168951</v>
+        <v>-0.0269499226251615</v>
       </c>
       <c r="N11" t="n">
-        <v>23.8803530565544</v>
+        <v>-14.0613894811656</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1475,35 +1475,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.440127610221814</v>
+        <v>0.787564600218769</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0677966101694915</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.593220338983051</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.38</v>
+        <v>0.131</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.0052147531231409</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0263242168811447</v>
+        <v>-0.0148058608702924</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0322201857813288</v>
+        <v>0.0065306795923702</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>-3.98072757491679</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0049809957736007</v>
+        <v>0.0022215513129246</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.847457627118644</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.137</v>
+        <v>18.9</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0203173198482933</v>
+        <v>4.08160009398496</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0068262474017429</v>
+        <v>1.83240961440008</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0330279775526892</v>
+        <v>7.4267749428346</v>
       </c>
       <c r="N13" t="n">
-        <v>14.8301604732068</v>
+        <v>21.5957676930421</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0256741662816303</v>
+        <v>0.186480160558853</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="H14" t="n">
-        <v>0.949152542372881</v>
+        <v>0.522522522522523</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>18.9</v>
+        <v>0.27</v>
       </c>
       <c r="K14" t="n">
-        <v>2.87782500981162</v>
+        <v>-0.0057181996086105</v>
       </c>
       <c r="L14" t="n">
-        <v>0.659331643358227</v>
+        <v>-0.0160732080109026</v>
       </c>
       <c r="M14" t="n">
-        <v>5.44389551101516</v>
+        <v>0.0049694815052621</v>
       </c>
       <c r="N14" t="n">
-        <v>15.2265873535006</v>
+        <v>-2.1178517068928</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.39778331427668</v>
+        <v>0.999673910045436</v>
       </c>
       <c r="G15" t="n">
-        <v>0.027027027027027</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.531531531531532</v>
+        <v>0.8389830508474579</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.273</v>
+        <v>9.785</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0009995894909688001</v>
+        <v>0.062409216095734</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0125414557385662</v>
+        <v>0.035419535299878</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0072155542433018</v>
+        <v>0.08955398850887911</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.366149996691869</v>
+        <v>0.637804967764272</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.998587281043522</v>
+        <v>0.520836446436572</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.830508474576271</v>
+        <v>0.6890756302521009</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9.529999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0501029749360224</v>
+        <v>-0.0001248291182501</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0227812492948153</v>
+        <v>-0.0020067767665703</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0777907830070889</v>
+        <v>0.002995796978213</v>
       </c>
       <c r="N16" t="n">
-        <v>0.525739506149239</v>
+        <v>-0.208048530416952</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.964912508845551</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.579831932773109</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.226890756302521</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.30986462292817</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.73109243697479</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>0.073</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0009986329460013</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0013476358621667</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0049978967096287</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.36799033698817</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.986928718693856</v>
+        <v>0.0073820679266406</v>
       </c>
       <c r="G18" t="n">
-        <v>0.495798319327731</v>
+        <v>0.144144144144144</v>
       </c>
       <c r="H18" t="n">
-        <v>0.235294117647059</v>
+        <v>0.630630630630631</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0.0314685314685315</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.001940991950221</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.0008395270543785</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.0038385280911969</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>6.16804108625796</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0030220531833112</v>
+        <v>0.799095432745933</v>
       </c>
       <c r="G19" t="n">
-        <v>0.153153153153153</v>
+        <v>0.722689075630252</v>
       </c>
       <c r="H19" t="n">
-        <v>0.621621621621622</v>
+        <v>0.126050420168067</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>0.034965034965035</v>
+        <v>0.001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0027978696952239</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0011510151009127</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0049865945169143</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>8.00190732834046</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.993406681506251</v>
+        <v>0.0108984312216926</v>
       </c>
       <c r="G20" t="n">
-        <v>0.65546218487395</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H20" t="n">
-        <v>0.126050420168067</v>
+        <v>0.470588235294118</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001</v>
+        <v>0.045</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0008205501152073</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.0002349909653769</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.001349779431746</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.82344470046083</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0005640562429349</v>
+        <v>0.5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0168067226890756</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.53781512605042</v>
+        <v>0.822033898305085</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.045</v>
+        <v>2.775</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0011007534246575</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0005710776472347</v>
+        <v>-0.0498618456506286</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0015818273419584</v>
+        <v>0.0421488591710456</v>
       </c>
       <c r="N21" t="n">
-        <v>2.44611872146118</v>
+        <v>0</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Whau_1a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.406005547817816</v>
+        <v>0.0018479441754882</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.813559322033898</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.735</v>
+        <v>0.14</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0100183113611628</v>
+        <v>0.0075257554945054</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0636507138075697</v>
+        <v>0.0045737139637913</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0382098504702263</v>
+        <v>0.0122687706287985</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.366300232583649</v>
+        <v>5.3755396389325</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Whau_1a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,14 +2461,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.001316475048327</v>
+        <v>0.043660502167669</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.0504201680672269</v>
       </c>
       <c r="H23" t="n">
-        <v>0.722689075630252</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>0.146</v>
+        <v>0.29</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0097366712235133</v>
+        <v>0.0104956896551724</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0050240958268559</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0158420292133842</v>
+        <v>0.0200686813186813</v>
       </c>
       <c r="N23" t="n">
-        <v>6.66895289281735</v>
+        <v>3.6192033293698</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9528598086398939</v>
+        <v>0.100314485955153</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.73109243697479</v>
+        <v>0.798319327731092</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>53</v>
+        <v>0.123</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.83375171154724</v>
+        <v>0.0047451282051282</v>
       </c>
       <c r="L24" t="n">
-        <v>-4.01242348675578</v>
+        <v>-0.0008875381824393</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0121276855111279</v>
+        <v>0.009879328292743499</v>
       </c>
       <c r="N24" t="n">
-        <v>-3.45990888971177</v>
+        <v>3.85782780904732</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0021601032133459</v>
+        <v>0.201563975193397</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0504201680672269</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.613445378151261</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.32</v>
+        <v>16.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0179926108374384</v>
+        <v>0.347857142857143</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0073117563502068</v>
+        <v>-0.38484814137587</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0268322477123897</v>
+        <v>1.14788901167553</v>
       </c>
       <c r="N25" t="n">
-        <v>5.62269088669951</v>
+        <v>2.10822510822511</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0001408859968953</v>
+        <v>0.016923160231034</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0212765957446809</v>
       </c>
       <c r="H26" t="n">
-        <v>0.789915966386555</v>
+        <v>0.446808510638298</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.123</v>
+        <v>0.28</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0097076411960132</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0056032340526702</v>
+        <v>-0.0169524731818963</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01366820907549</v>
+        <v>-0.0012909388094019</v>
       </c>
       <c r="N26" t="n">
-        <v>7.89239121627097</v>
+        <v>-3.58369309262167</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5</v>
+        <v>0.921568213832252</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.865546218487395</v>
+        <v>0.789772727272727</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>16.5</v>
+        <v>9.76</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.0234873785826726</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.7799605999802141</v>
+        <v>-0.0039983579638751</v>
       </c>
       <c r="M27" t="n">
-        <v>0.747605762463843</v>
+        <v>0.0501400325019131</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>0.240649370724105</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2927,35 +2927,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.309261031054942</v>
+        <v>5.3756130398979e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06993006993006989</v>
+        <v>0.0786516853932584</v>
       </c>
       <c r="H28" t="n">
-        <v>0.440559440559441</v>
+        <v>0.578651685393258</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.273</v>
+        <v>0.042</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0013242851470981</v>
+        <v>0.0031835171621582</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0091656178177109</v>
+        <v>0.0017607869384984</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0030709222731664</v>
+        <v>0.0049931647300068</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.485086134468181</v>
+        <v>7.5798027670435</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3018,35 +3018,35 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.274355515048508</v>
+        <v>0.999999999458007</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.466292134831461</v>
       </c>
       <c r="H29" t="n">
-        <v>0.781609195402299</v>
+        <v>0.331460674157303</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>9.76</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0100048276460961</v>
+        <v>-0.221397308494204</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0359635841636534</v>
+        <v>-0.501649163739015</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0200617774332763</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.102508479980493</v>
+        <v>-11.0698654247102</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.50006166321976e-09</v>
+        <v>0.0035168388428277</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0898876404494382</v>
+        <v>0.171597633136095</v>
       </c>
       <c r="H30" t="n">
-        <v>0.578651685393258</v>
+        <v>0.579881656804734</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.039</v>
+        <v>0.0314685314685315</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0046726588294534</v>
+        <v>0.0012119085950021</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0028096153846153</v>
+        <v>0.0001774029817028</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0070422404260403</v>
+        <v>0.0019644275223679</v>
       </c>
       <c r="N30" t="n">
-        <v>11.9811764857781</v>
+        <v>3.85117620189563</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.999999996062707</v>
+        <v>0.867829826830145</v>
       </c>
       <c r="G31" t="n">
-        <v>0.418079096045198</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="H31" t="n">
-        <v>0.361581920903955</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>0.001</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.373722574584242</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.880764873364569</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-12.4574191528081</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0010507066911546</v>
+        <v>1.50040808600244e-08</v>
       </c>
       <c r="G32" t="n">
-        <v>0.183431952662722</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="H32" t="n">
-        <v>0.562130177514793</v>
+        <v>0.43452380952381</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0314685314685315</v>
+        <v>0.042</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0015171915491069</v>
+        <v>0.0012070640423342</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0005162223473096</v>
+        <v>0.0008844895597711</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0024317310420281</v>
+        <v>0.0015409286705733</v>
       </c>
       <c r="N32" t="n">
-        <v>4.82129758938444</v>
+        <v>2.87396200555775</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.953004984153158</v>
+        <v>0.000329422581932</v>
       </c>
       <c r="G33" t="n">
-        <v>0.698717948717949</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.108974358974359</v>
+        <v>0.795454545454545</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.001</v>
+        <v>3.21</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-0.07116170157961529</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.101404999350599</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>-0.0428607087771613</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>-2.2168754386173</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Whau_1a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,14 +3458,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.45926047980249e-08</v>
+        <v>0.0006993982519202</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0506329113924051</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H34" t="n">
-        <v>0.455696202531646</v>
+        <v>0.741573033707865</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.042</v>
+        <v>0.1382</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0013322188449848</v>
+        <v>0.0050075588922571</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0009572348280313001</v>
+        <v>0.0026153031224639</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0016802133877924</v>
+        <v>0.0075762380506669</v>
       </c>
       <c r="N34" t="n">
-        <v>3.1719496309162</v>
+        <v>3.6234145385363</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>6.25366223140356e-05</v>
+        <v>0.643828282579223</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="H35" t="n">
-        <v>0.805714285714286</v>
+        <v>0.49438202247191</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.43</v>
+        <v>0.315</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.078726227377985</v>
+        <v>-0.0011101823708206</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.111177439037204</v>
+        <v>-0.0067768403897747</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0500013520034963</v>
+        <v>0.0048481624193862</v>
       </c>
       <c r="N35" t="n">
-        <v>-2.2952252879879</v>
+        <v>-0.352438847879576</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Whau_1a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0012238341468705</v>
+        <v>0.0071029568084524</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0056179775280898</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7247191011235951</v>
+        <v>0.719101123595506</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.136</v>
+        <v>0.1155</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0057997278391129</v>
+        <v>0.0032523228803716</v>
       </c>
       <c r="L36" t="n">
-        <v>0.002762083733473</v>
+        <v>0.0010647047345023</v>
       </c>
       <c r="M36" t="n">
-        <v>0.008835349155636701</v>
+        <v>0.0056722617033215</v>
       </c>
       <c r="N36" t="n">
-        <v>4.26450576405362</v>
+        <v>2.81586396568975</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3731,14 +3731,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.892948997722539</v>
+        <v>0.978936365013068</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0451977401129944</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5310734463276841</v>
+        <v>0.859550561797753</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.35</v>
+        <v>19.6</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0049184376281344</v>
+        <v>-0.5890796064848099</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0126456395697708</v>
+        <v>-1.05266450569183</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0015480326990902</v>
+        <v>-0.118804782062757</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.40526789375271</v>
+        <v>-3.00550819635107</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Whangaehu at d/s Winstone Pulp</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.0020122001589353</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.717514124293785</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.003989857576174</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0017844600881527</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0065639948515306</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.38123523404581</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1821556.684</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5628329.088</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Upper Whangaehu</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Whau_1a</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Whangaehu at d/s Winstone Pulp</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.999573987050589</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.870056497175141</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-0.976441659070191</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-1.57339753113023</v>
-      </c>
-      <c r="M39" t="n">
-        <v>-0.542845152605631</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-4.67196966062293</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Virtually certain improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1821556.684</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5628329.088</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Upper Whangaehu</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Whau_1a</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/WhangaehuatdsWinstonePulp_6027691f48.xlsx
+++ b/trend_results/Rivers/WhangaehuatdsWinstonePulp_6027691f48.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="63">
   <si>
     <t>site name</t>
   </si>
@@ -139,25 +139,28 @@
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>Likely increasing</t>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Virtually certain increasing</t>
@@ -166,7 +169,10 @@
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Very likely increasing</t>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Exceptionally unlikely increasing</t>
@@ -648,31 +654,31 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.0001897269859519</v>
+        <v>0.0005825126766829</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.773584905660377</v>
+        <v>0.76</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.27</v>
+        <v>0.2125</v>
       </c>
       <c r="K2">
-        <v>-0.0571806525241676</v>
+        <v>-0.0489174107142857</v>
       </c>
       <c r="L2">
-        <v>-0.0798922766439823</v>
+        <v>-0.07265837920767509</v>
       </c>
       <c r="M2">
-        <v>-0.0305108887290731</v>
+        <v>-0.0243742213294451</v>
       </c>
       <c r="N2">
-        <v>-21.1780194533954</v>
+        <v>-23.0199579831933</v>
       </c>
       <c r="O2" t="s">
         <v>39</v>
@@ -687,19 +693,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -719,31 +725,31 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.746491225748484</v>
+        <v>0.529383796942125</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.913793103448276</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.105</v>
+        <v>10.125</v>
       </c>
       <c r="K3">
-        <v>0.034454483623173</v>
+        <v>0.0117067307692311</v>
       </c>
       <c r="L3">
-        <v>-0.0257506132516161</v>
+        <v>-0.06556075466734219</v>
       </c>
       <c r="M3">
-        <v>0.09285502583944601</v>
+        <v>0.0549659898143944</v>
       </c>
       <c r="N3">
-        <v>0.340964706810222</v>
+        <v>0.115622032288702</v>
       </c>
       <c r="O3" t="s">
         <v>39</v>
@@ -758,19 +764,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -790,13 +796,13 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.546868877494938</v>
+        <v>0.195709861913167</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.76271186440678</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -805,16 +811,16 @@
         <v>0.058</v>
       </c>
       <c r="K4">
-        <v>-0.0003162337662337</v>
+        <v>0.0033663594470046</v>
       </c>
       <c r="L4">
-        <v>-0.0088413169720767</v>
+        <v>-0.0046774067535687</v>
       </c>
       <c r="M4">
-        <v>0.008322434688066999</v>
+        <v>0.013666037228413</v>
       </c>
       <c r="N4">
-        <v>-0.545230631437525</v>
+        <v>5.80406801207692</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -829,19 +835,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -861,13 +867,13 @@
         <v>37</v>
       </c>
       <c r="F5">
-        <v>0.994387305198094</v>
+        <v>0.997411688647154</v>
       </c>
       <c r="G5">
-        <v>0.6949152542372879</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="H5">
-        <v>0.220338983050847</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -900,19 +906,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -932,37 +938,37 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>0.523800440202992</v>
+        <v>0.694806645907318</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.907407407407407</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0379370629370629</v>
+        <v>0.0437062937062937</v>
       </c>
       <c r="K6">
-        <v>-0.0002865589907474</v>
+        <v>-0.0019178473375533</v>
       </c>
       <c r="L6">
-        <v>-0.006907137494285</v>
+        <v>-0.0075393471928915</v>
       </c>
       <c r="M6">
-        <v>0.0053601840087412</v>
+        <v>0.0042192552050759</v>
       </c>
       <c r="N6">
-        <v>-0.755353653030208</v>
+        <v>-4.38803470832215</v>
       </c>
       <c r="O6" t="s">
         <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1821556.684</v>
@@ -971,19 +977,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1003,10 +1009,10 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <v>0.241202354178931</v>
+        <v>0.170622376473531</v>
       </c>
       <c r="G7">
-        <v>0.847457627118644</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="H7">
         <v>0.135593220338983</v>
@@ -1033,7 +1039,7 @@
         <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q7">
         <v>1821556.684</v>
@@ -1042,19 +1048,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1074,37 +1080,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.97174707938272</v>
+        <v>0.999309782156606</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.474576271186441</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="K8">
-        <v>-0.0013209764918625</v>
+        <v>-0.0026220387652548</v>
       </c>
       <c r="L8">
-        <v>-0.002484693877551</v>
+        <v>-0.0040137362637362</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-0.0014344230777371</v>
       </c>
       <c r="N8">
-        <v>-2.81058828055866</v>
+        <v>-5.70008427229314</v>
       </c>
       <c r="O8" t="s">
         <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q8">
         <v>1821556.684</v>
@@ -1113,19 +1119,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1145,37 +1151,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.441232841643137</v>
+        <v>0.118453321391658</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.844827586206897</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2.805</v>
+        <v>2.75</v>
       </c>
       <c r="K9">
-        <v>-0.0292242182578568</v>
+        <v>-0.0851819302273069</v>
       </c>
       <c r="L9">
-        <v>-0.246555250897439</v>
+        <v>-0.293768208656737</v>
       </c>
       <c r="M9">
-        <v>0.125563464263428</v>
+        <v>0.0236462850811933</v>
       </c>
       <c r="N9">
-        <v>-1.04186161347083</v>
+        <v>-3.09752473553843</v>
       </c>
       <c r="O9" t="s">
         <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1821556.684</v>
@@ -1184,16 +1190,16 @@
         <v>5628329.088</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1213,37 +1219,37 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.32824387025514</v>
+        <v>0.577777017302469</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.88135593220339</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.152</v>
+        <v>0.153</v>
       </c>
       <c r="K10">
-        <v>0.0039830970556161</v>
+        <v>-0.001503086419753</v>
       </c>
       <c r="L10">
-        <v>-0.0119960104638905</v>
+        <v>-0.0183875783789053</v>
       </c>
       <c r="M10">
-        <v>0.0161780280165902</v>
+        <v>0.0124529823694449</v>
       </c>
       <c r="N10">
-        <v>2.62045858922114</v>
+        <v>-0.982409424675221</v>
       </c>
       <c r="O10" t="s">
         <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q10">
         <v>1821556.684</v>
@@ -1252,19 +1258,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1284,37 +1290,37 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.999390172387873</v>
+        <v>0.986335351142696</v>
       </c>
       <c r="G11">
         <v>0.0677966101694915</v>
       </c>
       <c r="H11">
-        <v>0.644067796610169</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I11">
         <v>3</v>
       </c>
       <c r="J11">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="K11">
-        <v>-0.0506210021321962</v>
+        <v>-0.0326116071428572</v>
       </c>
       <c r="L11">
-        <v>-0.07458505452429701</v>
+        <v>-0.0556730967439997</v>
       </c>
       <c r="M11">
-        <v>-0.0269499226251615</v>
+        <v>-0.006904239726581</v>
       </c>
       <c r="N11">
-        <v>-14.0613894811656</v>
+        <v>-10.1911272321429</v>
       </c>
       <c r="O11" t="s">
         <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1821556.684</v>
@@ -1323,19 +1329,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1355,37 +1361,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.787564600218769</v>
+        <v>0.8553420465036981</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.847457627118644</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.131</v>
+        <v>0.129</v>
       </c>
       <c r="K12">
-        <v>-0.0052147531231409</v>
+        <v>-0.0072224576271186</v>
       </c>
       <c r="L12">
-        <v>-0.0148058608702924</v>
+        <v>-0.0178043941202423</v>
       </c>
       <c r="M12">
-        <v>0.0065306795923702</v>
+        <v>0.0043694383202698</v>
       </c>
       <c r="N12">
-        <v>-3.98072757491679</v>
+        <v>-5.59880436210748</v>
       </c>
       <c r="O12" t="s">
         <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q12">
         <v>1821556.684</v>
@@ -1394,19 +1400,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1426,37 +1432,37 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.0022215513129246</v>
+        <v>0.08686280821908809</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.949152542372881</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18.9</v>
+        <v>20.2</v>
       </c>
       <c r="K13">
-        <v>4.08160009398496</v>
+        <v>2.39965622612681</v>
       </c>
       <c r="L13">
-        <v>1.83240961440008</v>
+        <v>-0.455901490098486</v>
       </c>
       <c r="M13">
-        <v>7.4267749428346</v>
+        <v>6.29446989887199</v>
       </c>
       <c r="N13">
-        <v>21.5957676930421</v>
+        <v>11.8794862679545</v>
       </c>
       <c r="O13" t="s">
         <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>1821556.684</v>
@@ -1465,19 +1471,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1497,37 +1503,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.186480160558853</v>
+        <v>0.053472423895685</v>
       </c>
       <c r="G14">
-        <v>0.027027027027027</v>
+        <v>0.0091743119266055</v>
       </c>
       <c r="H14">
-        <v>0.522522522522523</v>
+        <v>0.541284403669725</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
-        <v>-0.0057181996086105</v>
+        <v>-0.0115372406491534</v>
       </c>
       <c r="L14">
-        <v>-0.0160732080109026</v>
+        <v>-0.0220224196909432</v>
       </c>
       <c r="M14">
-        <v>0.0049694815052621</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>-2.1178517068928</v>
+        <v>-4.61489625966136</v>
       </c>
       <c r="O14" t="s">
         <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q14">
         <v>1821556.684</v>
@@ -1536,19 +1542,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1568,7 +1574,7 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.999673910045436</v>
+        <v>0.99942373741143</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1580,25 +1586,25 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.785</v>
+        <v>9.81</v>
       </c>
       <c r="K15">
-        <v>0.062409216095734</v>
+        <v>0.0579528704740453</v>
       </c>
       <c r="L15">
-        <v>0.035419535299878</v>
+        <v>0.0300796123468344</v>
       </c>
       <c r="M15">
-        <v>0.08955398850887911</v>
+        <v>0.08522292919566719</v>
       </c>
       <c r="N15">
-        <v>0.637804967764272</v>
+        <v>0.590753011967842</v>
       </c>
       <c r="O15" t="s">
         <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q15">
         <v>1821556.684</v>
@@ -1607,19 +1613,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1639,7 +1645,7 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.520836446436572</v>
+        <v>0.448015376887207</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1651,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06</v>
+        <v>0.067</v>
       </c>
       <c r="K16">
-        <v>-0.0001248291182501</v>
+        <v>0.0001429549902152</v>
       </c>
       <c r="L16">
-        <v>-0.0020067767665703</v>
+        <v>-0.0015000365517008</v>
       </c>
       <c r="M16">
-        <v>0.002995796978213</v>
+        <v>0.002675277127626</v>
       </c>
       <c r="N16">
-        <v>-0.208048530416952</v>
+        <v>0.213365657037708</v>
       </c>
       <c r="O16" t="s">
         <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q16">
         <v>1821556.684</v>
@@ -1678,19 +1684,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1710,13 +1716,13 @@
         <v>37</v>
       </c>
       <c r="F17">
-        <v>0.964912508845551</v>
+        <v>0.992945087680339</v>
       </c>
       <c r="G17">
-        <v>0.579831932773109</v>
+        <v>0.672268907563025</v>
       </c>
       <c r="H17">
-        <v>0.226890756302521</v>
+        <v>0.210084033613445</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1740,7 +1746,7 @@
         <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q17">
         <v>1821556.684</v>
@@ -1749,19 +1755,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1781,37 +1787,37 @@
         <v>36</v>
       </c>
       <c r="F18">
-        <v>0.0073820679266406</v>
+        <v>0.0103276254141721</v>
       </c>
       <c r="G18">
-        <v>0.144144144144144</v>
+        <v>0.117117117117117</v>
       </c>
       <c r="H18">
-        <v>0.630630630630631</v>
+        <v>0.657657657657658</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.0314685314685315</v>
+        <v>0.034965034965035</v>
       </c>
       <c r="K18">
-        <v>0.001940991950221</v>
+        <v>0.0017669436727655</v>
       </c>
       <c r="L18">
-        <v>0.0008395270543785</v>
+        <v>0.0004364654484271</v>
       </c>
       <c r="M18">
-        <v>0.0038385280911969</v>
+        <v>0.0032976937171268</v>
       </c>
       <c r="N18">
-        <v>6.16804108625796</v>
+        <v>5.05345890410959</v>
       </c>
       <c r="O18" t="s">
         <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q18">
         <v>1821556.684</v>
@@ -1820,19 +1826,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1852,13 +1858,13 @@
         <v>37</v>
       </c>
       <c r="F19">
-        <v>0.799095432745933</v>
+        <v>0.747436820549253</v>
       </c>
       <c r="G19">
-        <v>0.722689075630252</v>
+        <v>0.8151260504201679</v>
       </c>
       <c r="H19">
-        <v>0.126050420168067</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="I19">
         <v>3</v>
@@ -1882,7 +1888,7 @@
         <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q19">
         <v>1821556.684</v>
@@ -1891,19 +1897,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1920,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F20">
-        <v>0.0108984312216926</v>
+        <v>0.374644679402932</v>
       </c>
       <c r="G20">
         <v>0.0168067226890756</v>
       </c>
       <c r="H20">
-        <v>0.470588235294118</v>
+        <v>0.394957983193277</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1938,22 +1944,22 @@
         <v>0.045</v>
       </c>
       <c r="K20">
-        <v>0.0008205501152073</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.0002349909653769</v>
+        <v>-0.0004699073706674</v>
       </c>
       <c r="M20">
-        <v>0.001349779431746</v>
+        <v>0.0007051158301158</v>
       </c>
       <c r="N20">
-        <v>1.82344470046083</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
         <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q20">
         <v>1821556.684</v>
@@ -1962,19 +1968,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1991,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>0.457894237535715</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2006,25 +2012,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2.775</v>
+        <v>2.76</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-0.0040167616269815</v>
       </c>
       <c r="L21">
-        <v>-0.0498618456506286</v>
+        <v>-0.0498723928597557</v>
       </c>
       <c r="M21">
-        <v>0.0421488591710456</v>
+        <v>0.0352164031095837</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>-0.145534841557303</v>
       </c>
       <c r="O21" t="s">
         <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q21">
         <v>1821556.684</v>
@@ -2033,16 +2039,16 @@
         <v>5628329.088</v>
       </c>
       <c r="S21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2062,37 +2068,37 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.0018479441754882</v>
+        <v>0.0122259814049695</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.705882352941177</v>
+        <v>0.6890756302521009</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.14</v>
+        <v>0.152</v>
       </c>
       <c r="K22">
-        <v>0.0075257554945054</v>
+        <v>0.0053977832512315</v>
       </c>
       <c r="L22">
-        <v>0.0045737139637913</v>
+        <v>0.0022369130701432</v>
       </c>
       <c r="M22">
-        <v>0.0122687706287985</v>
+        <v>0.0090002088520197</v>
       </c>
       <c r="N22">
-        <v>5.3755396389325</v>
+        <v>3.55117319159968</v>
       </c>
       <c r="O22" t="s">
         <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q22">
         <v>1821556.684</v>
@@ -2101,19 +2107,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2133,37 +2139,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.043660502167669</v>
+        <v>0.17778455874695</v>
       </c>
       <c r="G23">
         <v>0.0504201680672269</v>
       </c>
       <c r="H23">
-        <v>0.529411764705882</v>
+        <v>0.478991596638655</v>
       </c>
       <c r="I23">
         <v>3</v>
       </c>
       <c r="J23">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="K23">
-        <v>0.0104956896551724</v>
+        <v>0.0046588010204081</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-0.0032292095311508</v>
       </c>
       <c r="M23">
-        <v>0.0200686813186813</v>
+        <v>0.0136911703456893</v>
       </c>
       <c r="N23">
-        <v>3.6192033293698</v>
+        <v>1.45587531887754</v>
       </c>
       <c r="O23" t="s">
         <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q23">
         <v>1821556.684</v>
@@ -2172,19 +2178,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2204,37 +2210,37 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.100314485955153</v>
+        <v>0.193998535039961</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.798319327731092</v>
+        <v>0.773109243697479</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.123</v>
+        <v>0.125</v>
       </c>
       <c r="K24">
-        <v>0.0047451282051282</v>
+        <v>0.0025890130861504</v>
       </c>
       <c r="L24">
-        <v>-0.0008875381824393</v>
+        <v>-0.0012509633085022</v>
       </c>
       <c r="M24">
-        <v>0.009879328292743499</v>
+        <v>0.008447959183673401</v>
       </c>
       <c r="N24">
-        <v>3.85782780904732</v>
+        <v>2.07121046892039</v>
       </c>
       <c r="O24" t="s">
         <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q24">
         <v>1821556.684</v>
@@ -2243,19 +2249,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2275,37 +2281,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.201563975193397</v>
+        <v>0.100314485955153</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.857142857142857</v>
+        <v>0.873949579831933</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="K25">
-        <v>0.347857142857143</v>
+        <v>0.731164695177434</v>
       </c>
       <c r="L25">
-        <v>-0.38484814137587</v>
+        <v>-0.110894836440897</v>
       </c>
       <c r="M25">
-        <v>1.14788901167553</v>
+        <v>1.33956183882489</v>
       </c>
       <c r="N25">
-        <v>2.10822510822511</v>
+        <v>4.45832131205752</v>
       </c>
       <c r="O25" t="s">
         <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q25">
         <v>1821556.684</v>
@@ -2314,19 +2320,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2346,37 +2352,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.016923160231034</v>
+        <v>0.034987660641241</v>
       </c>
       <c r="G26">
-        <v>0.0212765957446809</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="H26">
-        <v>0.446808510638298</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.28</v>
+        <v>0.265</v>
       </c>
       <c r="K26">
-        <v>-0.0100343406593407</v>
+        <v>-0.0081490677455602</v>
       </c>
       <c r="L26">
-        <v>-0.0169524731818963</v>
+        <v>-0.01433937562921</v>
       </c>
       <c r="M26">
-        <v>-0.0012909388094019</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>-3.58369309262167</v>
+        <v>-3.07511990398499</v>
       </c>
       <c r="O26" t="s">
         <v>39</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q26">
         <v>1821556.684</v>
@@ -2385,19 +2391,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2417,37 +2423,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.921568213832252</v>
+        <v>0.989592277571129</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.789772727272727</v>
+        <v>0.80225988700565</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>9.76</v>
+        <v>9.75</v>
       </c>
       <c r="K27">
-        <v>0.0234873785826726</v>
+        <v>0.0350361727088698</v>
       </c>
       <c r="L27">
-        <v>-0.0039983579638751</v>
+        <v>0.0083352350524875</v>
       </c>
       <c r="M27">
-        <v>0.0501400325019131</v>
+        <v>0.0554362637053481</v>
       </c>
       <c r="N27">
-        <v>0.240649370724105</v>
+        <v>0.359345361116613</v>
       </c>
       <c r="O27" t="s">
         <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q27">
         <v>1821556.684</v>
@@ -2456,19 +2462,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2488,31 +2494,31 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>5.3756130398979E-06</v>
+        <v>0.0001674944519371</v>
       </c>
       <c r="G28">
-        <v>0.0786516853932584</v>
+        <v>0.050561797752809</v>
       </c>
       <c r="H28">
-        <v>0.578651685393258</v>
+        <v>0.595505617977528</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.042</v>
+        <v>0.047</v>
       </c>
       <c r="K28">
-        <v>0.0031835171621582</v>
+        <v>0.0030103021978022</v>
       </c>
       <c r="L28">
-        <v>0.0017607869384984</v>
+        <v>0.001493027591189</v>
       </c>
       <c r="M28">
-        <v>0.0049931647300068</v>
+        <v>0.0049022994477359</v>
       </c>
       <c r="N28">
-        <v>7.5798027670435</v>
+        <v>6.40489829319617</v>
       </c>
       <c r="O28" t="s">
         <v>39</v>
@@ -2527,19 +2533,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2559,31 +2565,31 @@
         <v>37</v>
       </c>
       <c r="F29">
-        <v>0.999999999458007</v>
+        <v>0.99999988822393</v>
       </c>
       <c r="G29">
-        <v>0.466292134831461</v>
+        <v>0.51685393258427</v>
       </c>
       <c r="H29">
-        <v>0.331460674157303</v>
+        <v>0.280898876404494</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29">
-        <v>-0.221397308494204</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>-0.501649163739015</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>-11.0698654247102</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
         <v>39</v>
@@ -2598,19 +2604,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2627,34 +2633,34 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30">
-        <v>0.0035168388428277</v>
+        <v>0.0044778693936114</v>
       </c>
       <c r="G30">
-        <v>0.171597633136095</v>
+        <v>0.152941176470588</v>
       </c>
       <c r="H30">
-        <v>0.579881656804734</v>
+        <v>0.6</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.0314685314685315</v>
+        <v>0.0332167832167832</v>
       </c>
       <c r="K30">
-        <v>0.0012119085950021</v>
+        <v>0.0011963446389675</v>
       </c>
       <c r="L30">
-        <v>0.0001774029817028</v>
+        <v>0.0003077457101363</v>
       </c>
       <c r="M30">
-        <v>0.0019644275223679</v>
+        <v>0.0018703694636442</v>
       </c>
       <c r="N30">
-        <v>3.85117620189563</v>
+        <v>3.60162701836559</v>
       </c>
       <c r="O30" t="s">
         <v>39</v>
@@ -2669,19 +2675,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2701,13 +2707,13 @@
         <v>37</v>
       </c>
       <c r="F31">
-        <v>0.867829826830145</v>
+        <v>0.924908096838028</v>
       </c>
       <c r="G31">
-        <v>0.696428571428571</v>
+        <v>0.707865168539326</v>
       </c>
       <c r="H31">
-        <v>0.107142857142857</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -2731,7 +2737,7 @@
         <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q31">
         <v>1821556.684</v>
@@ -2740,19 +2746,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2772,13 +2778,13 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>1.50040808600244E-08</v>
+        <v>3.36364249650619E-06</v>
       </c>
       <c r="G32">
-        <v>0.0476190476190476</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="H32">
-        <v>0.43452380952381</v>
+        <v>0.421348314606742</v>
       </c>
       <c r="I32">
         <v>3</v>
@@ -2787,16 +2793,16 @@
         <v>0.042</v>
       </c>
       <c r="K32">
-        <v>0.0012070640423342</v>
+        <v>0.0009437984496124</v>
       </c>
       <c r="L32">
-        <v>0.0008844895597711</v>
+        <v>0.0006175128171096</v>
       </c>
       <c r="M32">
-        <v>0.0015409286705733</v>
+        <v>0.0012883338108513</v>
       </c>
       <c r="N32">
-        <v>2.87396200555775</v>
+        <v>2.24713916574382</v>
       </c>
       <c r="O32" t="s">
         <v>39</v>
@@ -2811,19 +2817,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2843,37 +2849,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.000329422581932</v>
+        <v>0.0003446122163409</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.795454545454545</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>3.21</v>
+        <v>3.12</v>
       </c>
       <c r="K33">
-        <v>-0.07116170157961529</v>
+        <v>-0.0654420239470149</v>
       </c>
       <c r="L33">
-        <v>-0.101404999350599</v>
+        <v>-0.0945312918655954</v>
       </c>
       <c r="M33">
-        <v>-0.0428607087771613</v>
+        <v>-0.0389494835651529</v>
       </c>
       <c r="N33">
-        <v>-2.2168754386173</v>
+        <v>-2.09750076753253</v>
       </c>
       <c r="O33" t="s">
         <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q33">
         <v>1821556.684</v>
@@ -2882,16 +2888,16 @@
         <v>5628329.088</v>
       </c>
       <c r="S33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2911,31 +2917,31 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.0006993982519202</v>
+        <v>0.0022110750959287</v>
       </c>
       <c r="G34">
         <v>0.0056179775280898</v>
       </c>
       <c r="H34">
-        <v>0.741573033707865</v>
+        <v>0.747191011235955</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.1382</v>
+        <v>0.14</v>
       </c>
       <c r="K34">
-        <v>0.0050075588922571</v>
+        <v>0.0049602270966942</v>
       </c>
       <c r="L34">
-        <v>0.0026153031224639</v>
+        <v>0.0024944462799973</v>
       </c>
       <c r="M34">
-        <v>0.0075762380506669</v>
+        <v>0.0074266064279249</v>
       </c>
       <c r="N34">
-        <v>3.6234145385363</v>
+        <v>3.5430193547816</v>
       </c>
       <c r="O34" t="s">
         <v>39</v>
@@ -2950,19 +2956,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2979,40 +2985,40 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35">
-        <v>0.643828282579223</v>
+        <v>0.5</v>
       </c>
       <c r="G35">
         <v>0.0449438202247191</v>
       </c>
       <c r="H35">
-        <v>0.49438202247191</v>
+        <v>0.48314606741573</v>
       </c>
       <c r="I35">
         <v>3</v>
       </c>
       <c r="J35">
-        <v>0.315</v>
+        <v>0.295</v>
       </c>
       <c r="K35">
-        <v>-0.0011101823708206</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>-0.0067768403897747</v>
+        <v>-0.0051774247737974</v>
       </c>
       <c r="M35">
-        <v>0.0048481624193862</v>
+        <v>0.0056413970875685</v>
       </c>
       <c r="N35">
-        <v>-0.352438847879576</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
         <v>39</v>
       </c>
       <c r="P35" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q35">
         <v>1821556.684</v>
@@ -3021,19 +3027,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3053,31 +3059,31 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.0071029568084524</v>
+        <v>0.0060168128376357</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.719101123595506</v>
+        <v>0.702247191011236</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.1155</v>
+        <v>0.117</v>
       </c>
       <c r="K36">
-        <v>0.0032523228803716</v>
+        <v>0.0033951810176125</v>
       </c>
       <c r="L36">
-        <v>0.0010647047345023</v>
+        <v>0.0011065391067132</v>
       </c>
       <c r="M36">
-        <v>0.0056722617033215</v>
+        <v>0.005827664936474</v>
       </c>
       <c r="N36">
-        <v>2.81586396568975</v>
+        <v>2.90186411761754</v>
       </c>
       <c r="O36" t="s">
         <v>39</v>
@@ -3092,19 +3098,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3124,37 +3130,37 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.978936365013068</v>
+        <v>0.9758202762773051</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.859550561797753</v>
+        <v>0.853932584269663</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>19.6</v>
+        <v>18.9</v>
       </c>
       <c r="K37">
-        <v>-0.5890796064848099</v>
+        <v>-0.5131622126741771</v>
       </c>
       <c r="L37">
-        <v>-1.05266450569183</v>
+        <v>-0.973344304874606</v>
       </c>
       <c r="M37">
-        <v>-0.118804782062757</v>
+        <v>-0.09939706098588789</v>
       </c>
       <c r="N37">
-        <v>-3.00550819635107</v>
+        <v>-2.71514398240305</v>
       </c>
       <c r="O37" t="s">
         <v>39</v>
       </c>
       <c r="P37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q37">
         <v>1821556.684</v>
@@ -3163,19 +3169,19 @@
         <v>5628329.088</v>
       </c>
       <c r="S37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
